--- a/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-22023.xlsx
+++ b/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-22023.xlsx
@@ -1948,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="104">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="E11" s="104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="104">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="98">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="E12" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="98">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>27</v>
       </c>
       <c r="D13" s="92">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E13" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="92">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="92">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="92">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E23" s="92">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="92">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E25" s="92">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="92">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="98">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="104">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="98">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="98">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="92">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="48" s="8" customFormat="1">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="92">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="104">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="96" t="str">
         <f>SUM(J12:R12)</f>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" s="92">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="98">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="92">
         <v>0</v>
@@ -6408,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="92">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="N11" s="92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" s="92">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="92">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="U11" s="97" t="str">
         <f>T11/T$29</f>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="98">
         <v>0</v>
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="98">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N12" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="98">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="92">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="U12" s="97" t="str">
         <f>T12/T$29</f>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="92">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N13" s="92">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="92">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="U13" s="97" t="str">
         <f>T13/T$29</f>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="98">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="R23" s="95" t="str">
         <f>SUM(L23:N23)</f>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="92">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U23" s="92" t="str">
         <f>T23/T$29</f>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="98">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="98">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="92">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U25" s="92" t="str">
         <f>T25/T$29</f>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="98">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U26" s="92" t="str">
         <f>T26/T$29</f>

--- a/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-22023.xlsx
+++ b/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-22023.xlsx
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="92">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="U11" s="97" t="str">
         <f>T11/T$29</f>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="92">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U12" s="97" t="str">
         <f>T12/T$29</f>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="92">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="U13" s="97" t="str">
         <f>T13/T$29</f>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="92" t="str">
         <f>T19/T$29</f>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U23" s="92" t="str">
         <f>T23/T$29</f>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U25" s="92" t="str">
         <f>T25/T$29</f>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" s="92" t="str">
         <f>T26/T$29</f>
